--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re1259aa332734e2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R65b89e238eb4409b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6ab72440858a4df2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbdcf226283a04bf0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f4d3fd3c62f4bdb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb668bc6e8f5343b2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R08e4864f6e894dcf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb832ebb5f79d4a8d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R65b89e238eb4409b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R13f10abf50094280"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbdcf226283a04bf0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Racde151d3164453d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb668bc6e8f5343b2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R77fa9aa9d5c34607"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb832ebb5f79d4a8d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1bbdfe3df3d547d7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R13f10abf50094280"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd4456416a1d34032"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Racde151d3164453d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78760019adf74e86"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R77fa9aa9d5c34607"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3896918339684e80"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1bbdfe3df3d547d7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ce08101d1064d3f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd4456416a1d34032"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R61db5f4c49ec467f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78760019adf74e86"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra89309b4598f4928"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3896918339684e80"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6f932aa701714ec8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ce08101d1064d3f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98a7afe365834ea4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R61db5f4c49ec467f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re4fe93a26af84ebf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra89309b4598f4928"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0df57ede245346d1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6f932aa701714ec8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d7f56380fa04354"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98a7afe365834ea4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9cf1cb2987f24607"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re4fe93a26af84ebf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rfa41cd31cdf74589"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0df57ede245346d1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47e822f706394f68"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d7f56380fa04354"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R182f58fa809a4a0f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9cf1cb2987f24607"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0305cb38e644b7e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rfa41cd31cdf74589"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rab682b90ad834324"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47e822f706394f68"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3288b71bc5be4d19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R182f58fa809a4a0f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf0f8f8d7c3c94a2d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0305cb38e644b7e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R68437a64fc7a40c4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rab682b90ad834324"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R50c95c5419ab49ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3288b71bc5be4d19"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3d5c1340a144393"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf0f8f8d7c3c94a2d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb0c03ef2d0804bf6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R68437a64fc7a40c4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R209d33bb86db4242"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R50c95c5419ab49ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rb8999ffa5de8485d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3d5c1340a144393"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4af6f4977724b27"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb0c03ef2d0804bf6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc968befbd9854ff6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R209d33bb86db4242"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd09be33cdac94448"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rb8999ffa5de8485d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R1164910678b548b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4af6f4977724b27"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf16118ec23ba4788"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc968befbd9854ff6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R14d77465579741eb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd09be33cdac94448"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdcdcf425d5ae47ad"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R1164910678b548b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R1faba83c2a39490b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf16118ec23ba4788"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R285a967da7e143e3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R14d77465579741eb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R158dcd8f5b004ada"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdcdcf425d5ae47ad"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Racaf41a0c86a4ceb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R1faba83c2a39490b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R03f431f8f10f474e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R285a967da7e143e3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbb8ce43138494a71"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R158dcd8f5b004ada"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd6727f597d7a4d2a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Racaf41a0c86a4ceb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a722f9fab9c4b42"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/041_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R03f431f8f10f474e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re8528f83a6394f4c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -303,7 +303,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbb8ce43138494a71"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43decdeaf0d34b52"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -333,7 +333,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd6727f597d7a4d2a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9500af05a58b4e11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -431,6 +431,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a722f9fab9c4b42"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R17290589789c4b49"/>
 </x:worksheet>
 </file>